--- a/Stakeholder Register.xlsx
+++ b/Stakeholder Register.xlsx
@@ -24,114 +24,222 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="36">
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Position</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="72">
+  <si>
+    <t>Stakeholder</t>
+  </si>
+  <si>
+    <t>What do we need from them?</t>
   </si>
   <si>
     <t>Role</t>
   </si>
   <si>
-    <t>Contact Information</t>
-  </si>
-  <si>
-    <t>Expectations/Requirements</t>
-  </si>
-  <si>
-    <t>Interested Phases</t>
-  </si>
-  <si>
-    <t>Internal/External</t>
+    <t>Internal / External</t>
   </si>
   <si>
     <t>Team Awesome</t>
   </si>
   <si>
-    <t>Management Group</t>
+    <t>Aboriginal Community</t>
+  </si>
+  <si>
+    <t>Department of Health</t>
+  </si>
+  <si>
+    <t>Indigenous Elders</t>
+  </si>
+  <si>
+    <t>Members of other AFL clubs</t>
+  </si>
+  <si>
+    <t>Educational institutes</t>
+  </si>
+  <si>
+    <t>Local Australian Rules clubs</t>
+  </si>
+  <si>
+    <t>Rural communities [local talent]</t>
   </si>
   <si>
     <t>External</t>
   </si>
   <si>
-    <t>IT Supplier/s</t>
-  </si>
-  <si>
-    <t>CFO</t>
-  </si>
-  <si>
-    <t>CTO</t>
-  </si>
-  <si>
-    <t>CEO</t>
-  </si>
-  <si>
-    <t>COO</t>
-  </si>
-  <si>
-    <t>John</t>
-  </si>
-  <si>
-    <t>Sally</t>
-  </si>
-  <si>
-    <t>Andrew</t>
-  </si>
-  <si>
-    <t>Tina</t>
-  </si>
-  <si>
     <t>Internal</t>
   </si>
   <si>
-    <t>Supply IT infrastructure</t>
-  </si>
-  <si>
-    <t>Senior manager</t>
-  </si>
-  <si>
-    <t>Approve funds</t>
-  </si>
-  <si>
-    <t>Project sponsor</t>
-  </si>
-  <si>
-    <t>Management consultants</t>
-  </si>
-  <si>
-    <t>Approves IT acquisitions</t>
-  </si>
-  <si>
-    <t>team@awesome.net</t>
-  </si>
-  <si>
-    <t>tina@pmc.com.au</t>
-  </si>
-  <si>
-    <t>andrew@pmc.com.au</t>
-  </si>
-  <si>
-    <t>john@pmc.com.au</t>
-  </si>
-  <si>
-    <t>sally@pmc.com.au</t>
-  </si>
-  <si>
-    <t>Entire Project</t>
-  </si>
-  <si>
-    <t>Requirements</t>
-  </si>
-  <si>
-    <t>Implementation</t>
-  </si>
-  <si>
-    <t>tech@supplies.net</t>
-  </si>
-  <si>
-    <t>Return on Investment</t>
+    <t>High / High</t>
+  </si>
+  <si>
+    <t>Power / Interest</t>
+  </si>
+  <si>
+    <t>AFL Commission</t>
+  </si>
+  <si>
+    <t>Low / High</t>
+  </si>
+  <si>
+    <t>Medium / Medium</t>
+  </si>
+  <si>
+    <t>Low / Medium</t>
+  </si>
+  <si>
+    <t>Low / Low</t>
+  </si>
+  <si>
+    <t>Medium / High</t>
+  </si>
+  <si>
+    <t>Interstate Australian Rules clubs</t>
+  </si>
+  <si>
+    <t>Management Staff</t>
+  </si>
+  <si>
+    <t>Information Technology Staff</t>
+  </si>
+  <si>
+    <t>Management expertise</t>
+  </si>
+  <si>
+    <t>Adminstrative Staff</t>
+  </si>
+  <si>
+    <t>To manage project progress, budget and completion</t>
+  </si>
+  <si>
+    <t>Approve us!</t>
+  </si>
+  <si>
+    <t>Club support</t>
+  </si>
+  <si>
+    <t>Local Stadiums</t>
+  </si>
+  <si>
+    <t>Possible home ground</t>
+  </si>
+  <si>
+    <t>Values, Exposure</t>
+  </si>
+  <si>
+    <t>Knowledge of Indigenous health issues</t>
+  </si>
+  <si>
+    <t>Exposure</t>
+  </si>
+  <si>
+    <t>Expose, Players</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Financial assets</t>
+  </si>
+  <si>
+    <t>Organise events and outreach</t>
+  </si>
+  <si>
+    <t>Support IT infrastructure, users, social media campaign</t>
+  </si>
+  <si>
+    <t>Outreach Officer</t>
+  </si>
+  <si>
+    <t>IT Consultants</t>
+  </si>
+  <si>
+    <t>Digital Marketing Campaign [apps, website]</t>
+  </si>
+  <si>
+    <t>Human resources management, payroll</t>
+  </si>
+  <si>
+    <t>Consult</t>
+  </si>
+  <si>
+    <t>Sponsor</t>
+  </si>
+  <si>
+    <t>Companies</t>
+  </si>
+  <si>
+    <t>Project Facilitators</t>
+  </si>
+  <si>
+    <t>Frodo</t>
+  </si>
+  <si>
+    <t>Sam</t>
+  </si>
+  <si>
+    <t>Bilbo</t>
+  </si>
+  <si>
+    <t>Pippin</t>
+  </si>
+  <si>
+    <t>Merchandise Supplier</t>
+  </si>
+  <si>
+    <t>C# Programmers</t>
+  </si>
+  <si>
+    <t>Office Supplier</t>
+  </si>
+  <si>
+    <t>Supply the organisation with office supplies</t>
+  </si>
+  <si>
+    <t>Facilitate the sale of the merchandise</t>
+  </si>
+  <si>
+    <t>High / Low</t>
+  </si>
+  <si>
+    <t>Future players</t>
+  </si>
+  <si>
+    <t>Governing Body</t>
+  </si>
+  <si>
+    <t>Support</t>
+  </si>
+  <si>
+    <t>Integrate binary into the CPU to make applications for the work effort</t>
+  </si>
+  <si>
+    <t>Their support</t>
+  </si>
+  <si>
+    <t>Match hosting</t>
+  </si>
+  <si>
+    <t>Recruitment</t>
+  </si>
+  <si>
+    <t>Supplier</t>
+  </si>
+  <si>
+    <t>Programmers</t>
+  </si>
+  <si>
+    <t>Fan base</t>
+  </si>
+  <si>
+    <t>Competition</t>
+  </si>
+  <si>
+    <t>Department of Aboriginal Affairs</t>
+  </si>
+  <si>
+    <t>Educator</t>
+  </si>
+  <si>
+    <t>Department of Corrective Services (JAIL)</t>
   </si>
 </sst>
 </file>
@@ -455,179 +563,410 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="59" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>48</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="B3" t="s">
         <v>13</v>
       </c>
       <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>71</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" t="s">
+        <v>61</v>
+      </c>
+      <c r="E15" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" t="s">
         <v>19</v>
       </c>
-      <c r="D3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="D17" t="s">
+        <v>62</v>
+      </c>
+      <c r="E17" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" t="s">
+        <v>58</v>
+      </c>
+      <c r="E19" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" t="s">
         <v>35</v>
       </c>
-      <c r="G3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="E20" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" t="s">
         <v>19</v>
       </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="D21" t="s">
+        <v>36</v>
+      </c>
+      <c r="E21" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" t="s">
         <v>14</v>
       </c>
-      <c r="C5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" t="s">
-        <v>35</v>
-      </c>
-      <c r="G6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="D22" t="s">
+        <v>37</v>
+      </c>
+      <c r="E22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" t="s">
         <v>20</v>
       </c>
-      <c r="E7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G7" t="s">
-        <v>33</v>
+      <c r="D23" t="s">
+        <v>42</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/Stakeholder Register.xlsx
+++ b/Stakeholder Register.xlsx
@@ -212,15 +212,6 @@
     <t>Employees</t>
   </si>
   <si>
-    <t>How to communicate with them</t>
-  </si>
-  <si>
-    <t>When to communicate</t>
-  </si>
-  <si>
-    <t>What we communicate</t>
-  </si>
-  <si>
     <t>Employee personnel</t>
   </si>
   <si>
@@ -297,6 +288,15 @@
   </si>
   <si>
     <t>Impartial/High</t>
+  </si>
+  <si>
+    <t>Public Information</t>
+  </si>
+  <si>
+    <t>News coverage</t>
+  </si>
+  <si>
+    <t>Team players</t>
   </si>
 </sst>
 </file>
@@ -383,17 +383,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:H30" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:H30"/>
-  <tableColumns count="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E30" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:E30"/>
+  <tableColumns count="5">
     <tableColumn id="1" name="Stakeholder"/>
     <tableColumn id="2" name="Role"/>
     <tableColumn id="3" name="Internal / External"/>
     <tableColumn id="4" name="Position/Interest"/>
     <tableColumn id="5" name="What do we need from them?"/>
-    <tableColumn id="6" name="How to communicate with them"/>
-    <tableColumn id="7" name="When to communicate"/>
-    <tableColumn id="8" name="What we communicate"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -662,10 +659,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="D10" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -677,7 +674,7 @@
     <col min="5" max="5" width="59" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -693,17 +690,8 @@
       <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -720,7 +708,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>36</v>
       </c>
@@ -737,7 +725,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>37</v>
       </c>
@@ -754,7 +742,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>38</v>
       </c>
@@ -771,12 +759,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
@@ -788,7 +776,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -805,7 +793,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -822,7 +810,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -839,7 +827,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>48</v>
       </c>
@@ -856,7 +844,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -873,7 +861,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>51</v>
       </c>
@@ -890,7 +878,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -907,9 +895,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B14" t="s">
         <v>45</v>
@@ -921,10 +909,10 @@
         <v>54</v>
       </c>
       <c r="E14" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -935,13 +923,13 @@
         <v>11</v>
       </c>
       <c r="D15" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E15" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>9</v>
       </c>
@@ -977,7 +965,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B18" t="s">
         <v>47</v>
@@ -989,12 +977,12 @@
         <v>57</v>
       </c>
       <c r="E18" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B19" t="s">
         <v>47</v>
@@ -1054,26 +1042,26 @@
         <v>54</v>
       </c>
       <c r="E22" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B23" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D23" t="s">
         <v>54</v>
       </c>
       <c r="E23" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
@@ -1081,32 +1069,41 @@
       <c r="D24" t="s">
         <v>53</v>
       </c>
+      <c r="E24" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B25" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D25" t="s">
-        <v>90</v>
+        <v>87</v>
+      </c>
+      <c r="E25" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B26" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D26" t="s">
         <v>53</v>
+      </c>
+      <c r="E26" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B27" t="s">
         <v>44</v>
@@ -1120,35 +1117,35 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B28" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D28" t="s">
         <v>53</v>
       </c>
       <c r="E28" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B29" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D29" t="s">
         <v>53</v>
       </c>
       <c r="E29" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B30" t="s">
         <v>49</v>
@@ -1157,7 +1154,7 @@
         <v>53</v>
       </c>
       <c r="E30" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
